--- a/data/data.obs.exp.language.xlsx
+++ b/data/data.obs.exp.language.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -20,46 +20,22 @@
     <t xml:space="preserve">Language</t>
   </si>
   <si>
-    <t xml:space="preserve">Number_Alessia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop</t>
+    <t xml:space="preserve">Observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
   </si>
   <si>
     <t xml:space="preserve">Pop_total</t>
   </si>
   <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_UniGe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop_UniGe_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop_UniGe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perc_UniGe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observed_UniGe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected_UniGe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop_AgeDist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_AgeDist</t>
   </si>
   <si>
     <t xml:space="preserve">1888</t>
@@ -431,293 +407,161 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>160</v>
+      </c>
+      <c r="D2" t="n">
+        <v>131.732494583162</v>
+      </c>
+      <c r="E2" t="n">
+        <v>779641</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2917754</v>
+      </c>
+      <c r="G2" t="n">
         <v>493</v>
       </c>
-      <c r="D2" t="n">
-        <v>779641</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2917754</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>26.7205871365441</v>
-      </c>
-      <c r="G2" t="n">
-        <v>160</v>
-      </c>
-      <c r="H2" t="n">
-        <v>131.732494583162</v>
-      </c>
-      <c r="I2" t="n">
-        <v>495</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2783351</v>
-      </c>
-      <c r="K2" t="n">
-        <v>657626</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23.6271314685068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>172</v>
-      </c>
-      <c r="N2" t="n">
-        <v>116.954300769109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2922897</v>
-      </c>
-      <c r="P2" t="n">
-        <v>603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
+        <v>295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>339.850949051908</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2011362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2917754</v>
+      </c>
+      <c r="G3" t="n">
         <v>493</v>
       </c>
-      <c r="D3" t="n">
-        <v>2011362</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2917754</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>68.9352837833484</v>
-      </c>
-      <c r="G3" t="n">
-        <v>295</v>
-      </c>
-      <c r="H3" t="n">
-        <v>339.850949051908</v>
-      </c>
-      <c r="I3" t="n">
-        <v>495</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2783351</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1998974</v>
-      </c>
-      <c r="L3" t="n">
-        <v>71.8189692927698</v>
-      </c>
-      <c r="M3" t="n">
-        <v>283</v>
-      </c>
-      <c r="N3" t="n">
-        <v>355.50389799921</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2922897</v>
-      </c>
-      <c r="P3" t="n">
-        <v>603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.41655636493</v>
+      </c>
+      <c r="E4" t="n">
+        <v>126751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2917754</v>
+      </c>
+      <c r="G4" t="n">
         <v>493</v>
       </c>
-      <c r="D4" t="n">
-        <v>126751</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2917754</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4.34412908010751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.41655636493</v>
-      </c>
-      <c r="I4" t="n">
-        <v>495</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2783351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>126751</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.55389923872339</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.5418012316808</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2922897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
+        <v>155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150.560046726787</v>
+      </c>
+      <c r="E5" t="n">
+        <v>886631</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3315443</v>
+      </c>
+      <c r="G5" t="n">
         <v>563</v>
       </c>
-      <c r="D5" t="n">
-        <v>886631</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3315443</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>26.7424594541363</v>
-      </c>
-      <c r="G5" t="n">
-        <v>155</v>
-      </c>
-      <c r="H5" t="n">
-        <v>150.560046726787</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5" t="n">
-        <v>3318985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
+        <v>360</v>
+      </c>
+      <c r="D6" t="n">
+        <v>388.897641129707</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2290174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3315443</v>
+      </c>
+      <c r="G6" t="n">
         <v>563</v>
       </c>
-      <c r="D6" t="n">
-        <v>2290174</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3315443</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>69.0759575718841</v>
-      </c>
-      <c r="G6" t="n">
-        <v>360</v>
-      </c>
-      <c r="H6" t="n">
-        <v>388.897641129707</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6" t="n">
-        <v>3318985</v>
-      </c>
-      <c r="P6" t="n">
-        <v>662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.5423121435054</v>
+      </c>
+      <c r="E7" t="n">
+        <v>138638</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3315443</v>
+      </c>
+      <c r="G7" t="n">
         <v>563</v>
       </c>
-      <c r="D7" t="n">
-        <v>138638</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3315443</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>4.18158297397965</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23.5423121435054</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7" t="n">
-        <v>3318985</v>
-      </c>
-      <c r="P7" t="n">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
